--- a/Resources/2011/Team_PER_2011.xlsx
+++ b/Resources/2011/Team_PER_2011.xlsx
@@ -22,94 +22,94 @@
     <t>PER</t>
   </si>
   <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>NJN</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
     <t>MEM</t>
   </si>
   <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>NJN</t>
-  </si>
-  <si>
-    <t>CHA</t>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>LAL</t>
   </si>
   <si>
     <t>GSW</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>DET</t>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>CHI</t>
   </si>
   <si>
     <t>PHI</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>UTA</t>
+    <t>NOH</t>
+  </si>
+  <si>
+    <t>NYK</t>
   </si>
   <si>
     <t>MIN</t>
-  </si>
-  <si>
-    <t>NOH</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>IND</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>168.3</v>
+        <v>11.725</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>147.4</v>
+        <v>13.08333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>156.9999999999999</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>14.23076923076923</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>162.4</v>
+        <v>13.34166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>144.6</v>
+        <v>12.28333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>182.4</v>
+        <v>11.66666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>160.1</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>182.8</v>
+        <v>12.42666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>169.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>123.4</v>
+        <v>12.83333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>186.4</v>
+        <v>14.06153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>133.7</v>
+        <v>13.275</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>170.7</v>
+        <v>12.19285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>161.2</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -654,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>134.8</v>
+        <v>16.63636363636364</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>183</v>
+        <v>14.85555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>137.4</v>
+        <v>14.03076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -687,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>192.5</v>
+        <v>13.53333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>167.7</v>
+        <v>12.66666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>94.39999999999999</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>164.2</v>
+        <v>11.27333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>140.7</v>
+        <v>13.63636363636364</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -742,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>185</v>
+        <v>11.72857142857143</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -753,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>119.7</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>163.2</v>
+        <v>9.207692307692305</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -775,7 +775,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -786,7 +786,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>106.2</v>
+        <v>11.23333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -797,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>178.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>190</v>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
